--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Orpen_Bower/Frederick_Orpen_Bower.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Orpen_Bower/Frederick_Orpen_Bower.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Orpen Bower est un botaniste britannique, né le 4 novembre 1855 à Ripon et mort le 11 avril 1948 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Abrahma Bower et de Cornelia née Morris, et le neveu de Francis Orpen Morris. Il est diplômé, en 1877, au Trinity College de Cambridge. Il étudie en 1877-1878 auprès de Julius von Sachs (1832-1897) à Wurtzbourg, en 1879 auprès de Heinrich Anton de Bary (1831-1888) à l'université de Strasbourg.
 Il enseigne la botanique au Christ's College à Cambridge en 1877 puis à Kensington en 1882. Il devient chercheur au laboratoire Jordrell aux Jardins botaniques royaux de Kew. Il obtient la chaire royale de botanique à l’université de Glasgow en 1885, fonction qu’il conserve jusqu’en 1925.
